--- a/Recycling/Met_rec_tech/metrec_tech_Min_target_Avg.xlsx
+++ b/Recycling/Met_rec_tech/metrec_tech_Min_target_Avg.xlsx
@@ -137,7 +137,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.45912364692554E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.651663952511288E-09</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.0003209882849824879</v>
+      </c>
+      <c r="E7">
         <v>21.84588010820449</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.115924051458251E-06</v>
-      </c>
-      <c r="F7">
-        <v>0.0003209882849824879</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>58.21692174818891</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>401.2000362098484</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>26.94649528430542</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>221936.5731742606</v>
+      </c>
+      <c r="E7">
         <v>1387526.094459183</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>50835.54232155453</v>
-      </c>
-      <c r="F7">
-        <v>221936.5731742606</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3697607.863112067</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>366.1123207574721</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>24.58983807184204</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>208129.6898010013</v>
+      </c>
+      <c r="E7">
         <v>1386281.338714166</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>46389.62287275127</v>
-      </c>
-      <c r="F7">
-        <v>208129.6898010013</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -936,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3694290.722880392</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.003484078495096E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.01728220969856E-08</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.003288043635983164</v>
+      </c>
+      <c r="E7">
         <v>42.32696022505758</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.805676176574201E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.003288043635983164</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>112.7967982546715</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.087339599154586E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.073603550378401E-07</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.02895482296347286</v>
+      </c>
+      <c r="E7">
         <v>85.95500251275547</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0003911928431924245</v>
-      </c>
-      <c r="F7">
-        <v>0.02895482296347286</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>229.0608403216101</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.230459536685065E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1252,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.498082302158147E-06</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1265,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.1829365640714891</v>
+      </c>
+      <c r="E7">
         <v>147.8811423362992</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.002826186688436924</v>
-      </c>
-      <c r="F7">
-        <v>0.1829365640714891</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>394.087345018058</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0001497929173793014</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1367,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.006080203759616E-05</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.094438012409118</v>
+      </c>
+      <c r="E7">
         <v>277.6716586443686</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.01898006855343767</v>
-      </c>
-      <c r="F7">
-        <v>1.094438012409118</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>739.9651166682909</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0008320008518928698</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5.588111916406395E-05</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>5.50261232786011</v>
+      </c>
+      <c r="E7">
         <v>493.1208834141382</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.1054217614672567</v>
-      </c>
-      <c r="F7">
-        <v>5.50261232786011</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1314.11413684986</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.003374830710641169</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0002266696201942891</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>20.48087328570003</v>
+      </c>
+      <c r="E7">
         <v>711.3438213617573</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.4276204734167712</v>
-      </c>
-      <c r="F7">
-        <v>20.48087328570003</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1895.654804437117</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.01457015316234392</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0009786005185586531</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>82.05481960196587</v>
+      </c>
+      <c r="E7">
         <v>1185.420669936339</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.846165430873618</v>
-      </c>
-      <c r="F7">
-        <v>82.05481960196587</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3159.018635941858</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.05816900030448072</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.003906905660341447</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>306.6299206616246</v>
+      </c>
+      <c r="E7">
         <v>1947.697252028886</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7.370519466339868</v>
-      </c>
-      <c r="F7">
-        <v>306.6299206616246</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5190.403771736511</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.2172318145652981</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.01459031789250178</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1955,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1076.638900480114</v>
+      </c>
+      <c r="E7">
         <v>3158.078066774547</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27.52516477128676</v>
-      </c>
-      <c r="F7">
-        <v>1076.638900480114</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1971,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8415.938510027663</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.6742368792613601</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.04528494328953168</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2185,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3129.087413847302</v>
+      </c>
+      <c r="E7">
         <v>4479.952103535756</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>85.43169072027706</v>
-      </c>
-      <c r="F7">
-        <v>3129.087413847302</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2201,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>11938.59069789664</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.044842955205058</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.1373413411676697</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>8682.091836015145</v>
+      </c>
+      <c r="E7">
         <v>6614.742693957812</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>259.0994297315759</v>
-      </c>
-      <c r="F7">
-        <v>8682.091836015145</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>17627.57810127873</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.501661608992865</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.3695176600757527</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>20086.1820809391</v>
+      </c>
+      <c r="E7">
         <v>9608.70000324287</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>697.108490330598</v>
-      </c>
-      <c r="F7">
-        <v>20086.1820809391</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2431,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>25606.15243789272</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.15906015002072</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.6823306124586751</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>28724.64468704079</v>
+      </c>
+      <c r="E7">
         <v>11660.35807657571</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1287.241489513403</v>
-      </c>
-      <c r="F7">
-        <v>28724.64468704079</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2546,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>31073.60062114997</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.66780509885577</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.9851592852815549</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2645,13 +2645,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>32277.2392001755</v>
+      </c>
+      <c r="E7">
         <v>15886.20333316785</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1858.538782576741</v>
-      </c>
-      <c r="F7">
-        <v>32277.2392001755</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>42335.02389201125</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.80490024373235</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.7928730310060257</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2760,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>30438.70870878149</v>
+      </c>
+      <c r="E7">
         <v>20547.33388170411</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1495.783778115358</v>
-      </c>
-      <c r="F7">
-        <v>30438.70870878149</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>54756.43566659648</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.330190832060188</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2862,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.4251656081996039</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>31135.49330445451</v>
+      </c>
+      <c r="E7">
         <v>25939.58123210623</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>802.0903661593761</v>
-      </c>
-      <c r="F7">
-        <v>31135.49330445451</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2891,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>69126.19511278799</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.636995727393969</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2977,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.4457720785863347</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2990,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>33034.45460314881</v>
+      </c>
+      <c r="E7">
         <v>31999.28967238944</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>840.9652211781895</v>
-      </c>
-      <c r="F7">
-        <v>33034.45460314881</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>85274.66660203313</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.99044712909387</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.7381705010156884</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>35078.65743742448</v>
+      </c>
+      <c r="E7">
         <v>38617.13167820042</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1392.585467942549</v>
-      </c>
-      <c r="F7">
-        <v>35078.65743742448</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>102910.5040361808</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>15.55092779455281</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.044473989686557</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>36434.10748290794</v>
+      </c>
+      <c r="E7">
         <v>45651.20296722739</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1970.438127343375</v>
-      </c>
-      <c r="F7">
-        <v>36434.10748290794</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>121655.5477595816</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.0003878389078996612</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.001033548991400803</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>22.04416993749154</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3437,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.480590896448333</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3450,13 +3450,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>38435.67968633088</v>
+      </c>
+      <c r="E7">
         <v>52965.53170975723</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2793.188516101591</v>
-      </c>
-      <c r="F7">
-        <v>38435.67968633088</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3466,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>141147.4474649392</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>29.24270831860813</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3552,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.964078840201136</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41169.97952505852</v>
+      </c>
+      <c r="E7">
         <v>60484.06218215645</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3705.306087135859</v>
-      </c>
-      <c r="F7">
-        <v>41169.97952505852</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>161183.5228258332</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>33.48429859151076</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.248964139231727</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3680,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40597.08515329135</v>
+      </c>
+      <c r="E7">
         <v>68256.96347258132</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4242.752553656252</v>
-      </c>
-      <c r="F7">
-        <v>40597.08515329135</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>181897.4690683155</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>42.66912281213053</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.865860450822911</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40578.11403409046</v>
+      </c>
+      <c r="E7">
         <v>76538.36381410064</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5406.549857351244</v>
-      </c>
-      <c r="F7">
-        <v>40578.11403409046</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>203966.5106111458</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>70.3050126238432</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3897,10 +3897,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.722017747128309</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3910,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41268.76186376956</v>
+      </c>
+      <c r="E7">
         <v>85868.4952441823</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8908.25803113194</v>
-      </c>
-      <c r="F7">
-        <v>41268.76186376956</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3926,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>228830.3077516138</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>110.0075711805188</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4012,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>7.388629687219792</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41611.36560160635</v>
+      </c>
+      <c r="E7">
         <v>97146.67150557382</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>13938.91833427857</v>
-      </c>
-      <c r="F7">
-        <v>41611.36560160635</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>258885.4349252324</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>154.715555536037</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4127,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.39142973925329</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4140,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>43740.68951287131</v>
+      </c>
+      <c r="E7">
         <v>111677.3193625062</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19603.80972433713</v>
-      </c>
-      <c r="F7">
-        <v>43740.68951287131</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>297608.0492144054</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>188.7065303125258</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4242,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>12.67442465165782</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>44988.35955916642</v>
+      </c>
+      <c r="E7">
         <v>131168.2902117668</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>23910.7625679238</v>
-      </c>
-      <c r="F7">
-        <v>44988.35955916642</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4271,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>349549.3909734625</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>170.5730490889921</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4357,10 +4357,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>11.45649413775725</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4370,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>43925.32223811914</v>
+      </c>
+      <c r="E7">
         <v>157663.0833275299</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21613.09240596525</v>
-      </c>
-      <c r="F7">
-        <v>43925.32223811914</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4386,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>420155.1660630892</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>157.434834317188</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4472,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.57406938591242</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41200.63245161819</v>
+      </c>
+      <c r="E7">
         <v>193390.1257468214</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19948.36605306836</v>
-      </c>
-      <c r="F7">
-        <v>41200.63245161819</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4501,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>515363.8929496281</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.01338069812124432</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.03565812187937725</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>151.5734747113208</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4702,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.18039270414735</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4715,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40603.372641692</v>
+      </c>
+      <c r="E7">
         <v>240525.2623678058</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19205.68069062222</v>
-      </c>
-      <c r="F7">
-        <v>40603.372641692</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4731,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>640973.9643526786</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>136.8009321184447</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4817,10 +4817,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.188198752529841</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4830,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>47856.16647262606</v>
+      </c>
+      <c r="E7">
         <v>300904.6570656776</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17333.87075443288</v>
-      </c>
-      <c r="F7">
-        <v>47856.16647262606</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4846,10 +4846,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>801878.5595861234</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>120.7310363420211</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4932,10 +4932,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.108868414353648</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>64262.27136772933</v>
+      </c>
+      <c r="E7">
         <v>375725.7033728214</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15297.67485933067</v>
-      </c>
-      <c r="F7">
-        <v>64262.27136772933</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4961,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1001268.603677079</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>115.6685907609389</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5047,10 +5047,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>7.768850583681434</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5060,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>94984.55117031402</v>
+      </c>
+      <c r="E7">
         <v>465269.2401655086</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>14656.21886890034</v>
-      </c>
-      <c r="F7">
-        <v>94984.55117031402</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5076,10 +5076,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1239892.502036667</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>163.6027056286234</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5162,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.98833284605045</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5175,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>140374.4991667271</v>
+      </c>
+      <c r="E7">
         <v>568671.2106469953</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>20729.88912083393</v>
-      </c>
-      <c r="F7">
-        <v>140374.4991667271</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1515447.636199857</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>242.0522927690105</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5277,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.2573788060275</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>192856.7294636374</v>
+      </c>
+      <c r="E7">
         <v>683766.5144439256</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30670.13574907122</v>
-      </c>
-      <c r="F7">
-        <v>192856.7294636374</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5306,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1822164.246450476</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>327.8390738877677</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>22.01922547660761</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5405,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>252544.0245207147</v>
+      </c>
+      <c r="E7">
         <v>807031.6527848785</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>41540.06882133914</v>
-      </c>
-      <c r="F7">
-        <v>252544.0245207147</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5421,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2150652.587388494</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>464.8546557466362</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5507,10 +5507,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>31.22184112269695</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5520,13 +5520,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>349294.6194415211</v>
+      </c>
+      <c r="E7">
         <v>933654.4742983773</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>58901.13756923861</v>
-      </c>
-      <c r="F7">
-        <v>349294.6194415211</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5536,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2488088.792983056</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>620.0226696123761</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>41.64366010708308</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5635,13 +5635,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>457306.7286136562</v>
+      </c>
+      <c r="E7">
         <v>1057760.008652618</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>78562.27770856184</v>
-      </c>
-      <c r="F7">
-        <v>457306.7286136562</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2818816.698942064</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>678.0960595820158</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5737,10 +5737,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>45.54414412434277</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>496298.517068413</v>
+      </c>
+      <c r="E7">
         <v>1172811.933290783</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>85920.68251192931</v>
-      </c>
-      <c r="F7">
-        <v>496298.517068413</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3125417.708398446</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.1038819836804414</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.2768343177302162</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>681.929517564051</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5967,10 +5967,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>45.80161732502182</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5980,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>496629.7016517984</v>
+      </c>
+      <c r="E7">
         <v>1272181.884376349</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>86406.4150590264</v>
-      </c>
-      <c r="F7">
-        <v>496629.7016517984</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5996,10 +5996,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3390227.94437045</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>678.0604351554351</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6082,10 +6082,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>45.54175141906806</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6095,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>490679.3686128522</v>
+      </c>
+      <c r="E7">
         <v>1349836.63314003</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>85916.16858650143</v>
-      </c>
-      <c r="F7">
-        <v>490679.3686128522</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6111,10 +6111,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3597169.500845101</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>665.0250275371004</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6197,10 +6197,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>44.66623168274198</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>476657.9385273799</v>
+      </c>
+      <c r="E7">
         <v>1401049.205343028</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>84264.46879624025</v>
-      </c>
-      <c r="F7">
-        <v>476657.9385273799</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6226,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3733645.499692396</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>651.2574235473871</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6312,10 +6312,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>43.74153416902852</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>458565.274061473</v>
+      </c>
+      <c r="E7">
         <v>1423012.443803445</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>82519.99334230638</v>
-      </c>
-      <c r="F7">
-        <v>458565.274061473</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3792175.168831553</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>653.4687247556607</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6427,10 +6427,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>43.89005563513765</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6440,13 +6440,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>445736.7599446046</v>
+      </c>
+      <c r="E7">
         <v>1415237.32995512</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>82800.18448391458</v>
-      </c>
-      <c r="F7">
-        <v>445736.7599446046</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6456,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3771455.326360148</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>652.4396607155523</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6542,10 +6542,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>43.82093881858402</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6555,13 +6555,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>424446.2989944043</v>
+      </c>
+      <c r="E7">
         <v>1379657.948914537</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>82669.79309846823</v>
-      </c>
-      <c r="F7">
-        <v>424446.2989944043</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6571,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3676640.101172185</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6641,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>606.2141743488967</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6657,10 +6657,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.71621614168404</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6670,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>369832.1968168818</v>
+      </c>
+      <c r="E7">
         <v>1320430.043193467</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76812.62097374431</v>
-      </c>
-      <c r="F7">
-        <v>369832.1968168818</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3518804.100260614</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>475.8808520935718</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>31.96241271055971</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6785,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>262041.3797064034</v>
+      </c>
+      <c r="E7">
         <v>1243477.859360796</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>60298.25277474978</v>
-      </c>
-      <c r="F7">
-        <v>262041.3797064034</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6801,10 +6801,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3313734.803791466</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>309.3165013087448</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6887,10 +6887,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.77516174378984</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>140567.9358673111</v>
+      </c>
+      <c r="E7">
         <v>1155888.927182755</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>39193.09739247198</v>
-      </c>
-      <c r="F7">
-        <v>140567.9358673111</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3080319.716582351</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6986,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>237.5053397472348</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7002,10 +7002,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>15.95198389799925</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7015,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>96038.66278450459</v>
+      </c>
+      <c r="E7">
         <v>1065260.338220175</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30093.99716006149</v>
-      </c>
-      <c r="F7">
-        <v>96038.66278450459</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2838804.270848407</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7101,10 +7101,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.92597888079214E-15</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7117,10 +7117,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5.99511032180637E-16</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7130,13 +7130,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.426394769389394E-10</v>
+      </c>
+      <c r="E7">
         <v>0.4267143564461587</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.130999342478803E-12</v>
-      </c>
-      <c r="F7">
-        <v>2.426394769389394E-10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7146,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.13714788211829</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>219.7143686310625</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7232,10 +7232,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>14.75705798569352</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>93233.83083885923</v>
+      </c>
+      <c r="E7">
         <v>979064.4705980697</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27839.72601477008</v>
-      </c>
-      <c r="F7">
-        <v>93233.83083885923</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2609101.550906777</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>199.7672382237733</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7347,10 +7347,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>13.4173141996927</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>93107.10651134663</v>
+      </c>
+      <c r="E7">
         <v>904060.4168646783</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25312.2506895113</v>
-      </c>
-      <c r="F7">
-        <v>93107.10651134663</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2409223.811700749</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>172.5965339785147</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7462,10 +7462,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>11.59240097004094</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7475,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>94715.08998387938</v>
+      </c>
+      <c r="E7">
         <v>845759.1685310694</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21869.48558257142</v>
-      </c>
-      <c r="F7">
-        <v>94715.08998387938</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7491,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2253857.253098026</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>155.1347559979128</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7577,10 +7577,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.41958522840984</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>105910.9620223684</v>
+      </c>
+      <c r="E7">
         <v>807968.6412562209</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19656.92607752149</v>
-      </c>
-      <c r="F7">
-        <v>105910.9620223684</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7606,10 +7606,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2153149.560925147</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>178.2847400303595</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>11.97444783873071</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7705,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>140178.4204681707</v>
+      </c>
+      <c r="E7">
         <v>792482.4063609391</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22590.23088013922</v>
-      </c>
-      <c r="F7">
-        <v>140178.4204681707</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2111880.409917856</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>241.59442532133</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7807,10 +7807,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.22662625890334</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7820,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>191934.364310416</v>
+      </c>
+      <c r="E7">
         <v>798995.0175699946</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30612.1199516797</v>
-      </c>
-      <c r="F7">
-        <v>191934.364310416</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2129235.818592445</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>330.6420715132315</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7922,10 +7922,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>22.20748807750372</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>254966.1886117334</v>
+      </c>
+      <c r="E7">
         <v>825296.4471427413</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>41895.2330575207</v>
-      </c>
-      <c r="F7">
-        <v>254966.1886117334</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7951,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2199326.30062924</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>437.1759264791598</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8037,10 +8037,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>29.36280652557268</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8050,13 +8050,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>329161.4210048355</v>
+      </c>
+      <c r="E7">
         <v>867721.1190880758</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>55394.00126293058</v>
-      </c>
-      <c r="F7">
-        <v>329161.4210048355</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8066,10 +8066,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2312383.490113061</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>548.992354517584</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8152,10 +8152,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>36.87292760958297</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>406961.6177702569</v>
+      </c>
+      <c r="E7">
         <v>921744.1426389358</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>69562.11753104383</v>
-      </c>
-      <c r="F7">
-        <v>406961.6177702569</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8181,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2456349.039639255</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>635.0850236081184</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8267,10 +8267,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>42.65531916561945</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8280,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>465882.437570497</v>
+      </c>
+      <c r="E7">
         <v>982577.6448811449</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>80470.80927612203</v>
-      </c>
-      <c r="F7">
-        <v>465882.437570497</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8296,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2618463.782655394</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8366,10 +8366,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.53911193032766E-13</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8382,10 +8382,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>6.406919527609107E-14</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8395,13 +8395,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.199017696349777E-08</v>
+      </c>
+      <c r="E7">
         <v>1.36291795196684</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.208688645258686E-10</v>
-      </c>
-      <c r="F7">
-        <v>2.199017696349777E-08</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3.632029809092309</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>673.2372801893744</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8497,10 +8497,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>45.21780547983975</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8510,13 +8510,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>490162.5474431649</v>
+      </c>
+      <c r="E7">
         <v>1045646.475167911</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>85305.03280317273</v>
-      </c>
-      <c r="F7">
-        <v>490162.5474431649</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8526,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2786535.434580991</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>678.150830836831</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8612,10 +8612,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>45.54782282131782</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8625,13 +8625,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>489920.0189071845</v>
+      </c>
+      <c r="E7">
         <v>1106895.47280538</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>85927.62250741999</v>
-      </c>
-      <c r="F7">
-        <v>489920.0189071845</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8641,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2949757.428153885</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>671.1450925732344</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8727,10 +8727,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>45.07728424692861</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8740,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>479434.4028597682</v>
+      </c>
+      <c r="E7">
         <v>1162951.984112802</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>85039.93439214148</v>
-      </c>
-      <c r="F7">
-        <v>479434.4028597682</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8756,10 +8756,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3099142.003922704</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>660.5704979981462</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8842,10 +8842,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>44.3670443737148</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8855,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>463473.1920617507</v>
+      </c>
+      <c r="E7">
         <v>1211199.724708653</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83700.04106826847</v>
-      </c>
-      <c r="F7">
-        <v>463473.1920617507</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8871,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3227717.045298156</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>648.8459951149341</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8957,10 +8957,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>43.57957121035733</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>442703.2619291929</v>
+      </c>
+      <c r="E7">
         <v>1249808.979533843</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>82214.44433664964</v>
-      </c>
-      <c r="F7">
-        <v>442703.2619291929</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8986,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3330606.558367937</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>630.6186578553898</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9072,10 +9072,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>42.35533688039617</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>413504.2837933</v>
+      </c>
+      <c r="E7">
         <v>1277738.733102263</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>79904.88179667479</v>
-      </c>
-      <c r="F7">
-        <v>413504.2837933</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9101,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3405036.348785411</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>590.4502623958052</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9187,10 +9187,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>39.65743712680877</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9200,13 +9200,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>367445.9542567363</v>
+      </c>
+      <c r="E7">
         <v>1294707.206687903</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>74815.19589668004</v>
-      </c>
-      <c r="F7">
-        <v>367445.9542567363</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9216,10 +9216,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3450255.506540948</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9286,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>519.1952152659677</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9302,10 +9302,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>34.87161056107329</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9315,13 +9315,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>302488.737503361</v>
+      </c>
+      <c r="E7">
         <v>1301127.17837971</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>65786.56021106764</v>
-      </c>
-      <c r="F7">
-        <v>302488.737503361</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3467364.040862123</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>434.2036728794645</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9417,10 +9417,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>29.16317589152643</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9430,13 +9430,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>234994.0897758088</v>
+      </c>
+      <c r="E7">
         <v>1298012.653503615</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>55017.39081921</v>
-      </c>
-      <c r="F7">
-        <v>234994.0897758088</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9446,10 +9446,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3459064.166922674</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>366.2748840702913</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9532,10 +9532,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>24.60075659414245</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>188170.9114600567</v>
+      </c>
+      <c r="E7">
         <v>1286870.489265008</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>46410.22106174153</v>
-      </c>
-      <c r="F7">
-        <v>188170.9114600567</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9561,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3429371.497166565</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.912596051962057E-11</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.29953226321876E-12</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9660,13 +9660,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>9.494884556048063E-07</v>
+      </c>
+      <c r="E7">
         <v>4.041221359607283</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6.224687486757723E-09</v>
-      </c>
-      <c r="F7">
-        <v>9.494884556048063E-07</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9676,10 +9676,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>10.76942043506909</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>321.6737101574913</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9762,10 +9762,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>21.60513043750093</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9775,13 +9775,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>164985.5386634105</v>
+      </c>
+      <c r="E7">
         <v>1269588.760725652</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>40758.86348596797</v>
-      </c>
-      <c r="F7">
-        <v>164985.5386634105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9791,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3383317.548638704</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>295.0592320992154</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>19.81757599392041</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9890,13 +9890,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>159362.854373333</v>
+      </c>
+      <c r="E7">
         <v>1248325.882393494</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37386.5770861983</v>
-      </c>
-      <c r="F7">
-        <v>159362.854373333</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9906,10 +9906,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3326654.263942765</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9976,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>275.4481680268776</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9992,10 +9992,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.50040401522931</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>162451.7198108566</v>
+      </c>
+      <c r="E7">
         <v>1225395.861046132</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>34901.68429546437</v>
-      </c>
-      <c r="F7">
-        <v>162451.7198108566</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10021,10 +10021,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3265548.222352693</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10091,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>265.1579451814438</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10107,10 +10107,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>17.80926389470873</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10120,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>174094.3960229516</v>
+      </c>
+      <c r="E7">
         <v>1203140.562412322</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33597.82334894225</v>
-      </c>
-      <c r="F7">
-        <v>174094.3960229516</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10136,10 +10136,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3206240.244252031</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>279.4817958216136</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.77132156891728</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10235,13 +10235,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>201067.3782377585</v>
+      </c>
+      <c r="E7">
         <v>1183782.11515987</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>35412.78010294691</v>
-      </c>
-      <c r="F7">
-        <v>201067.3782377585</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10251,10 +10251,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3154652.063630313</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>326.145916518106</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10337,10 +10337,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>21.90550500562213</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10350,13 +10350,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>244967.6394589626</v>
+      </c>
+      <c r="E7">
         <v>1169257.939045804</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>41325.53102135383</v>
-      </c>
-      <c r="F7">
-        <v>244967.6394589626</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10366,10 +10366,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3115946.695840074</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>400.0429141697082</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10452,10 +10452,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>26.86877748574148</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10465,13 +10465,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>301541.2656125819</v>
+      </c>
+      <c r="E7">
         <v>1161054.723693791</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>50688.9248710716</v>
-      </c>
-      <c r="F7">
-        <v>301541.2656125819</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10481,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3094086.008888289</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10551,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>489.3318033692034</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10567,10 +10567,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>32.86584232772118</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10580,13 +10580,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>364921.1561284258</v>
+      </c>
+      <c r="E7">
         <v>1160069.341906331</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>62002.60556917446</v>
-      </c>
-      <c r="F7">
-        <v>364921.1561284258</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10596,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3091460.072367146</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>581.3662927511492</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>39.04731468637991</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10695,13 +10695,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>428734.3910525338</v>
+      </c>
+      <c r="E7">
         <v>1166527.643918545</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>73664.1777470279</v>
-      </c>
-      <c r="F7">
-        <v>428734.3910525338</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10711,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3108670.752871158</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>662.2011306021726</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10797,10 +10797,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>44.47656538520307</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10810,13 +10810,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>483934.5767024594</v>
+      </c>
+      <c r="E7">
         <v>1179982.805778451</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83906.65643534571</v>
-      </c>
-      <c r="F7">
-        <v>483934.5767024594</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10826,10 +10826,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3144527.312608167</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.442937182199221E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10912,10 +10912,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.691449767303339E-11</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10925,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.285961975726676E-05</v>
+      </c>
+      <c r="E7">
         <v>10.49113123213183</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.828327207694119E-07</v>
-      </c>
-      <c r="F7">
-        <v>2.285961975726676E-05</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10941,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>27.95773678908091</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>715.7891609459184</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11027,10 +11027,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>48.07579139872634</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11040,13 +11040,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>519026.417398468</v>
+      </c>
+      <c r="E7">
         <v>1199396.272072168</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>90696.72706994395</v>
-      </c>
-      <c r="F7">
-        <v>519026.417398468</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11056,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3196262.113059532</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>737.5216535757198</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>49.535448570489</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11155,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>530405.792897218</v>
+      </c>
+      <c r="E7">
         <v>1223284.583613857</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93450.42335390259</v>
-      </c>
-      <c r="F7">
-        <v>530405.792897218</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11171,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3259921.894987776</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>736.6212777278741</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11257,10 +11257,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>49.47497506264168</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11270,13 +11270,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>524052.7536205587</v>
+      </c>
+      <c r="E7">
         <v>1249902.365094374</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93336.33788434265</v>
-      </c>
-      <c r="F7">
-        <v>524052.7536205587</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11286,10 +11286,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3330855.420846488</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>724.9321492531882</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>48.68987781216185</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11385,13 +11385,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>507628.1275953149</v>
+      </c>
+      <c r="E7">
         <v>1277429.768983531</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>91855.22339868452</v>
-      </c>
-      <c r="F7">
-        <v>507628.1275953149</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11401,10 +11401,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3404212.99262699</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>708.7163965318566</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11487,10 +11487,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>47.60075103050755</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11500,13 +11500,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>485037.9681855742</v>
+      </c>
+      <c r="E7">
         <v>1304139.611559812</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>89800.54615705549</v>
-      </c>
-      <c r="F7">
-        <v>485037.9681855742</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11516,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3475391.851408048</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>685.0219883426012</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11602,10 +11602,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>46.00932231437895</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11615,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>454500.5688525235</v>
+      </c>
+      <c r="E7">
         <v>1328529.946290933</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>86798.25806738279</v>
-      </c>
-      <c r="F7">
-        <v>454500.5688525235</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11631,10 +11631,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3540389.471161556</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>646.9221412518984</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11717,10 +11717,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>43.45035606985603</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11730,13 +11730,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>412738.0540078749</v>
+      </c>
+      <c r="E7">
         <v>1349417.273504499</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>81970.67527970047</v>
-      </c>
-      <c r="F7">
-        <v>412738.0540078749</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11746,10 +11746,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3596051.952503487</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>590.1344617023102</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11832,10 +11832,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>39.63622645599619</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11845,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>359560.9524059942</v>
+      </c>
+      <c r="E7">
         <v>1365991.199531266</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>74775.18119560723</v>
-      </c>
-      <c r="F7">
-        <v>359560.9524059942</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11861,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3640219.683434053</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>520.4158548763294</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11947,10 +11947,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>34.95359450059428</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11960,13 +11960,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>302108.0267218545</v>
+      </c>
+      <c r="E7">
         <v>1377833.982984864</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>65941.22589145521</v>
-      </c>
-      <c r="F7">
-        <v>302108.0267218545</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11976,10 +11976,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3671779.428071666</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>453.3670642387699</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12062,10 +12062,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>30.45028004977413</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -12075,13 +12075,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>253329.4262353757</v>
+      </c>
+      <c r="E7">
         <v>1384909.408277477</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>57445.55957431185</v>
-      </c>
-      <c r="F7">
-        <v>253329.4262353757</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12091,10 +12091,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3690634.675768485</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
